--- a/emails_modifié.xlsx
+++ b/emails_modifié.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:N154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,234 +434,749 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>email</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>nbre_maj</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>fichier</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ici</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cliquer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>télécharger</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>offre</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>maintenant</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>recevoir</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>lien</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ouvrir</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>compte</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Félicitations ! Vous avez été choisi pour un cadeau exceptionnel !</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>2</v>
       </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>URGENT ! Vous avez gagné un BONUS EXCEPTIONNEL, cliquez ici pour récupérer votre récompense !</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>24</v>
       </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Votre compte bancaire est bloqué, veuillez saisir vos informations de carte bancaire pour éviter la suspension.</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>1</v>
       </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Virement instantané : vous avez reçu 500€, saisissez vos informations PayPal pour le débloquer.</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>3</v>
       </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Vous avez été choisi ! Inscrivez-vous GRATUITEMENT pour recevoir votre récompense immédiate.</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>14</v>
       </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Devenez riche rapidement, gagnez des millions sans effort en quelques jours !</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>1</v>
       </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>J’ai besoin de votre aide urgente, pouvez-vous m’envoyer de l’argent rapidement ?</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>1</v>
       </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Votre abonnement Netflix va être annulé. Confirmez votre paiement ici : [lien suspect]</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>3</v>
       </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Urgent : Votre compte sera suspendu dans 24h si vous ne mettez pas à jour vos informations immédiatement !</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>2</v>
       </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>OFFRE LIMITÉE !!! -50% SUR TOUS LES PRODUITS MAIS UNIQUEMENT PENDANT 2 HEURES !!!</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>56</v>
       </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>URGENT : Dernier jour pour profiter de cette offre unique !</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>7</v>
       </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>URGENT : Vous avez gagné un iPhone ! Cliquez ici pour réclamer votre prix avant qu'il ne soit trop tard !</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>9</v>
       </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>URGENT : Votre livraison n’a pas été effectuée. Cliquez ici pour reprogrammer !</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>8</v>
       </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>GRATUIT : Téléchargez cette application et recevez un bonus de 500€ !</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>8</v>
       </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Bonjour,
 Votre compte a été compromis et nous avons temporairement limité votre accès pour des raisons de sécurité.
@@ -671,17 +1186,50 @@
 Cordialement, Service de Sécurité.</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>7</v>
       </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Nous avons mis à jour notre politique de sécurité et vous devez confirmer vos informations immédiatement pour éviter toute interruption de service.
@@ -690,17 +1238,50 @@
 Cordialement, L’équipe Support Client.</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>8</v>
       </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t>Cher client,
 Nous avons détecté une activité suspecte sur votre compte. Pour éviter sa suspension, veuillez vous connecter immédiatement et vérifier vos informations.
@@ -709,677 +1290,2129 @@
 Cordialement, L’équipe de support.</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>7</v>
       </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t>Félicitations, vous êtes l’heureux gagnant d’un iPhone 15 GRATUIT ! Confirmez votre adresse de livraison ici ➡️ bit.ly/iphonegagnant</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>10</v>
       </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t>Félicitations ! Vous avez été sélectionné pour recevoir 1000€ GRATUITS. Cliquez vite sur le lien suivant pour réclamer votre prix 👉 bit.ly/gain1000</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>11</v>
       </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>Travaillez 2 heures par jour et gagnez jusqu'à 5000€/mois. Ne ratez pas cette offre exclusive ! Inscrivez-vous ici ➡️ bit.ly/travailfacile</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>3</v>
       </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Cher client,
 Votre compte bancaire a été compromis. Mettez à jour vos informations immédiatement en cliquant ici : bit.ly/banksecure.</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>3</v>
       </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>Découvrez notre pilule miracle approuvée par des experts. Perdez du poids rapidement sans régime ni sport ! Commandez maintenant : bit.ly/minceur10kg</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>3</v>
       </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>Votre appareil a été infecté par un virus. Pour protéger vos données, téléchargez notre outil de sécurité maintenant.
 [Téléchargez l’outil ici]
 Ne tardez pas, la sécurité de votre appareil est en danger.</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>4</v>
       </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Voici votre facture pour le mois de mars – Ouvrez la pièce jointe pour plus de détails.</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>2</v>
       </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>Important : Votre document est en attente, veuillez l'ouvrir pour plus d'informations.</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>2</v>
       </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>Bonjour,
 Téléchargez le fichier attaché pour effectuer une analyse complète de votre appareil et corriger le problème détecté.</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>2</v>
       </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>Bonjour,
 Cliquez sur le fichier joint pour finaliser la maintenance de votre ordinateur et éviter toute défaillance.</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>2</v>
       </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>Bonjour,
 Votre appareil est verrouillé. Pour récupérer vos fichiers, ouvrez le fichier joint et suivez les instructions.
 [Déverrouillez votre PC ici]</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>6</v>
       </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>Bonjour,
 Votre mot de passe a été réinitialisé. Ouvrez le fichier joint pour récupérer vos nouvelles informations.</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>3</v>
       </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons détecté une tentative de connexion suspecte. Ouvrez le fichier joint pour confirmer votre identité et sécuriser votre appareil.</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>3</v>
       </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons détecté des activités suspectes sur votre appareil. Veuillez ouvrir le fichier joint pour vérifier votre appareil et éviter une perte de données.</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
         <v>3</v>
       </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>Votre appareil rencontre une erreur critique. Téléchargez le fichier attaché pour résoudre ce problème et éviter la perte de données.</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>2</v>
       </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>Bonjour,
 Afin de sécuriser votre appareil, veuillez ouvrir le fichier joint et confirmer vos informations personnelles.</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>2</v>
       </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>🔥 Offre spéciale ! Achetez 1 montre et recevez-en 2 GRATUITEMENT ! 🎁 Profitez-en maintenant 👉 bit.ly/montredeal</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>15</v>
       </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>💄 Maquillage de luxe à -80% ! Uniquement aujourd’hui ! 🛍️ Commandez ici : bit.ly/makeup80</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
         <v>3</v>
       </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>👠 Chaussures tendance à prix imbattable ! Livraison OFFERTE ! Commandez ici : bit.ly/shoesdeal</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>10</v>
       </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>📱 Smartphones dernier cri à partir de 99€ ! Profitez-en avant la rupture de stock 📦 bit.ly/phonepromo</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>2</v>
       </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>🏋️‍♂️ Programme minceur révolutionnaire : Perdez 10kg en 2 semaines ! Essayez GRATUITEMENT : bit.ly/minceurdeal</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>15</v>
       </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>🎶 Casque audio haute qualité à seulement 29,99€ ! Offre limitée ! 🎧 Commandez ici : bit.ly/casquebest</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>3</v>
       </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>🛋️ Meubles de luxe à PRIX CHOC ! Livraison EXPRESS 📦 Commandez maintenant : bit.ly/meublespromo</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>18</v>
       </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t>📚 Formations en ligne GRATUITES ! Apprenez un nouveau métier aujourd’hui ! 🎓 bit.ly/formationsgratos</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
         <v>11</v>
       </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>🚀 1000€ de bonus de trading pour bien démarrer ! Inscrivez-vous maintenant 💰 bit.ly/tradingpro</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>1</v>
       </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>💳 Carte bancaire sans frais pour vos achats en ligne ! Ouvrez votre compte ici : bit.ly/cartegratuite</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
         <v>2</v>
       </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>💰 Investissez en crypto dès aujourd’hui et triplez votre argent en un mois ! 🚀 bit.ly/cryptoexp</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
         <v>1</v>
       </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Votre disque dur présente des erreurs critiques qui risquent de causer une perte de données. Téléchargez immédiatement le fichier joint pour effectuer une réparation.</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
         <v>2</v>
       </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>Nous avons détecté une erreur système qui pourrait compromettre vos fichiers. Ouvrez le fichier joint pour réparer votre système et éviter des défaillances.</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>2</v>
       </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>Une analyse de votre système a révélé plusieurs vulnérabilités critiques. Veuillez télécharger le fichier ci-joint pour effectuer une réparation immédiate et éviter des intrusions de logiciels malveillants.</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
         <v>2</v>
       </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>Nous avons détecté une tentative d'intrusion sur votre appareil. Pour sécuriser vos fichiers et protéger vos données, veuillez télécharger le fichier ci-joint et suivez les instructions.</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>2</v>
       </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>Des fichiers essentiels ont été corrompus sur votre ordinateur. Téléchargez le fichier ci-joint pour réparer et récupérer vos données.</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>2</v>
       </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>Votre système nécessite une mise à jour pour corriger des failles de sécurité. Téléchargez le fichier joint pour installer cette mise à jour et protéger vos fichiers.</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>2</v>
       </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>Des fichiers système essentiels ont été corrompus, ce qui risque de bloquer votre appareil. Ouvrez immédiatement le fichier joint pour effectuer la réparation.</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>2</v>
       </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>Une erreur a empêché la sauvegarde de vos fichiers. Téléchargez le fichier joint pour réparer la sauvegarde et éviter de perdre des données importantes.</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>2</v>
       </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>Nous avons détecté une erreur d’accès à votre espace de stockage. Téléchargez le fichier ci-joint pour corriger ce problème et récupérer l'accès à vos fichiers.</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>2</v>
       </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>Vos fichiers sont temporairement inaccessibles. Téléchargez le fichier joint pour récupérer vos données et éviter toute perte permanente.</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
         <v>2</v>
       </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>Une personne secrète t’a envoyé un message… Veux-tu le lire ? 🥰 bit.ly/messagecache</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>2</v>
       </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>💑 Reçois 5 demandes de rendez-vous en 24h !
 Des célibataires t’attendent… Inscris-toi vite avant qu’il ne soit trop tard ! bit.ly/inscriptionexpress</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>3</v>
       </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>Salut, Commencez votre activité dès maintenant et soyez votre propre patron tout en générant un revenu supplémentaire.</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>2</v>
       </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>Effectuez un débit instantané et sécurisé avec votre compte Paypal.</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>2</v>
       </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">Profitez d'une inscription gratuite et recevez un cadeau spécial en bonus. Cette offre spéciale est disponible pour une durée limitée ! Ne manquez pas cette promotion exceptionnelle avec un rabais de 50% sur tous nos produits.
 </t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>3</v>
       </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>Nous avons tenté de livrer votre colis à deux reprises, mais en raison d\'une adresse incomplète, votre colis n\'a pas pu être livré. Pour éviter un retour, veuillez soumettre à nouveau une adresse de livraison valide dans les 12 heures.
 Voir ici : https://dhl.service-client.quest/update
 (Veuillez répondre O, puis quitter l'email et l\'ouvrir à nouveau pour activer le lien, ou copier le lien pour l/'ouvrir dans Safari)</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>6</v>
       </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Nous avons détecté une activité suspecte sur votre compte. Pour éviter la restriction de votre compte, veuillez cliquer ici maintenant et vérifier vos informations.
@@ -1387,51 +3420,150 @@
 Support technique</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>5</v>
       </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>Bonjour,
 Votre abonnement premium a expiré et votre compte sera suspendu si nous ne recevons pas votre renouvellement sous 24 heures. Pour renouveler votre abonnement, veuillez cliquer sur le lien ci-dessous.
 Renouveler mon abonnement : https://account-renewal-service.com/update</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>4</v>
       </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>Cher client,
 Nous n'avons toujours pas reçu le paiement de votre dernière facture. Afin d'éviter des frais supplémentaires, veuillez effectuer le paiement immédiatement.
 Payer maintenant : https://secure-payment-system.com/pay</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>4</v>
       </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t xml:space="preserve">Objet : 🎁🎁 GAGNEZ DE L'ARGENT RAPIDEMENT !!!! 💰💰
 🎉🎉 VOUS ÊTES LE GAGNANT D'UN BON CADEAU DE 500€ !!! 🎉🎉
@@ -1441,17 +3573,50 @@
 </t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>122</v>
       </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>Objet : 🚨🚨 ATTENTION !!! VOTRE COMPTE EST BLOQUÉ ???
 ⚠️⚠️ Nous avons détecté une activité suspecte sur votre compte. ⚠️⚠️
@@ -1460,17 +3625,50 @@
 ÉVITEZ LA SUSPENSION IMMÉDIATE</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>104</v>
       </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>Objet : 💳💳 MISE À JOUR DE VOTRE CARTE BANCAIRE IMMEDIATE ❓❓
 ⚡⚡ Votre carte de crédit doit être vérifiée pour éviter toute interruption de service. ⚡⚡
@@ -1479,118 +3677,349 @@
 NE PAS IGNORER CETTE ALERTE</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
         <v>87</v>
       </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Pour des raisons de sécurité, nous devons vérifier vos informations de compte. Si vous ne complétez cette vérification sous 24 heures, votre compte sera verrouillé.
 Vérifier mon compte : https://account-verification-service.com/check</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
         <v>4</v>
       </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>Cher client,
 Vous êtes éligible pour un remboursement intégral de votre achat précédent. Veuillez réclamer votre remboursement en cliquant sur le lien ci-dessous.
 Réclamer mon remboursement : https://refund-claim-service.com/submit</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>4</v>
       </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>Félicitations ! Vous avez été sélectionné pour une offre exclusive de gains rapides. Ne manquez pas cette chance de gagner de l'argent en quelques clics !
 Commencer maintenant : https://easy-money-making.com/start</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>4</v>
       </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons détecté un virus sur votre appareil. Pour protéger vos données personnelles et votre sécurité, veuillez télécharger et installer immédiatement l'outil de sécurité mis à jour.
 Télécharger ici : https://malware-protection-update.com/install</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>4</v>
       </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Votre commande a été expédiée avec succès. Veuillez ouvrir la pièce jointe pour voir le récapitulatif et la confirmation de livraison.
 Pièce jointe : Commande_Détails.exe (Attention, fichier exécutable dangereux)</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C72" t="n">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>7</v>
       </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Une mise à jour critique de votre système est nécessaire pour corriger des vulnérabilités de sécurité. Cette mise à jour est obligatoire pour continuer à utiliser votre appareil en toute sécurité.
 Télécharger et installer la mise à jour ici : https://critical-update-fix.com/install</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>4</v>
       </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t xml:space="preserve">Cher utilisateur,
 Nous avons détecté une activité suspecte sur votre compte et avons temporairement verrouillé votre accès. Pour restaurer l'accès, veuillez télécharger le fichier de vérification joint et l'exécuter pour rétablir votre compte.
@@ -1598,117 +4027,348 @@
 </t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>7</v>
       </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>Bonjour,
 Votre mot de passe a été réinitialisé avec succès. Si vous n'êtes pas à l'origine de cette demande, veuillez cliquer sur le lien ci-dessous pour annuler cette modification.
 Cliquez ici pour annuler la réinitialisation : https://account-recovery-security.com/cancel (Site malveillant)</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>5</v>
       </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>Vous avez un nouveau message vocal. Pour l'écouter, veuillez ouvrir la pièce jointe et exécuter le fichier audio.
 Pièce jointe : Nouveau_Message_Vocal.exe</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>6</v>
       </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>Félicitations!!!! Vous êtes *** choisi *** pour *** recevoir un *** gain instantané ! Ne laissez pas cette occasion passer. Cliquez maintenant et commencez à gagner !
 👉 Cliquez ici pour réclamer vos $$$$$ : https://make-money-fast-now.com/claim
 Offre valable 24h seulement !!!</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>6</v>
       </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>Cherclient***,Votrecolisestenattenteetpeutêtrerécupérépour********unesommesymbolique ******de  500€ .
 Cliquez immédiatement pour finaliser la transaction et recevoir votre colis gratuitement !
 🔗 Finalisez votre paiement ici : https://shipping-payment.com/checkout</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>4</v>
       </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t xml:space="preserve"> DÉCOUVREZ COMMENT GAGNER DES  $$$$$ FACILEMENT 
 🔥FACILEMENT!!!🔥∗∗∗∗ à portée de main ! Apprenez comment vous pouvez gagner des $$$$$ en seulement 24 heures ! Ne perdez pas une seconde et commencez à gagner !
 Cliquez ici pour en savoir plus : https://easy-money-now.com/start</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>47</v>
       </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>🏆 Vous avez gagné !!! Cliquez ici pour récupérer votre prix !!! ** vous avez étéchoisipourrecevoirun∗∗prixde ! Il vous suffit de cliquer sur le lien ci-dessous pour obtenir votre récompense immédiatement !
 Réclamer votre $$$$$ : https://win-big-money.com/claim</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
         <v>4</v>
       </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>Bonjour ,
 Nous vous rappelons que votre rendez-vous chez le Dr. Dupont est prévu pour le 20 mars à 14h30. Si vous souhaitez reprogrammer ou annuler votre rendez-vous, veuillez nous contacter à l’avance.
@@ -1717,17 +4377,50 @@
 L’équipe du cabinet médical.</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="D81" t="n">
         <v>8</v>
       </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>Bonjour ,
 Nous vous rappelons que votre rendez-vous chez le Dr. Dupont est prévu pour le 20 mars à 14h30. Si vous souhaitez reprogrammer ou annuler votre rendez-vous, veuillez nous contacter à l’avance.
@@ -1736,17 +4429,50 @@
 L’équipe du cabinet médical.</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="D82" t="n">
         <v>8</v>
       </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>Bonjour ,
 Nous souhaitons vous informer que des modifications de sécurité importantes ont été apportées à votre compte bancaire. Vous pouvez consulter les détails sur notre site sécurisé en vous connectant à votre espace personnel.
@@ -1755,17 +4481,50 @@
 Banque CIH</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="D83" t="n">
         <v>9</v>
       </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons prévu une réunion pour discuter de l’avancement du projet de marketing digital le 25 mars à 10h00. Merci de bien vouloir confirmer votre présence avant le 23 mars.
@@ -1775,17 +4534,50 @@
 Chef de projet</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="C84" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="D84" t="n">
         <v>9</v>
       </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons bien pris en compte votre demande de remboursement pour l’achat effectué le 12 mars. Le montant sera crédité sur votre carte sous 3 à 5 jours ouvrés.
@@ -1794,17 +4586,50 @@
 Service client.</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="D85" t="n">
         <v>6</v>
       </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous vous rappelons que votre test de conduite est prévu pour le 22 mars à 9h00. Si vous avez besoin de reprogrammer ou annuler votre rendez-vous, veuillez nous contacter à l’avance.
@@ -1812,17 +4637,50 @@
 Auto-école ABC</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="D86" t="n">
         <v>8</v>
       </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>Nous avons sélectionné un cadeau rien que pour toi ! Ton bon d’achat de 50€ est activé et prêt à être utilisé immédiatement.
 💰 Comment l’utiliser ?
@@ -1833,17 +4691,50 @@
 Ne laisse pas passer cette occasion !</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>14</v>
       </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>Bonjour ,
 Nous avons le plaisir de vous inviter à notre événement annuel qui se tiendra le 15 avril à 18h00. Ce sera l’occasion de découvrir nos dernières innovations et de rencontrer nos experts.
@@ -1851,17 +4742,50 @@
 Bien cordialement,</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="D88" t="n">
         <v>5</v>
       </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>Bonne nouvelle ! Nous avons vérifié ton dossier et tu es éligible à un remboursement immédiat de 500€.
 💰 Que dois-tu faire ?
@@ -1872,17 +4796,50 @@
 Cordialement,</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C89" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>8</v>
       </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>Il ne te reste plus que quelques heures pour profiter de notre offre exclusive ! Nous offrons -85% sur tout ce que tu as vu dans notre boutique.
 ⚡ Utilise le code : DESTOCK85 à la caisse et fais-toi plaisir !
@@ -1895,17 +4852,50 @@
 À bientôt,</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C90" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>19</v>
       </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>Bonjour ,
 Nous avons bien reçu votre demande d’assistance technique concernant votre ordinateur. Notre technicien vous contactera dans les prochaines 24 heures pour résoudre votre problème.
@@ -1914,32 +4904,98 @@
 Support technique</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="C91" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="D91" t="n">
         <v>6</v>
       </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>Bonjour [Nom], nous avons bien reçu votre commande et elle sera expédiée sous 48h.</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="D92" t="n">
         <v>2</v>
       </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>Bonjour MME,
 Merci de vous être inscrit à notre newsletter ! Vous recevrez désormais nos dernières mises à jour et offres exclusives. Si vous ne souhaitez plus recevoir nos e-mails, vous pouvez vous désinscrire à tout moment via le lien en bas de chaque message.
@@ -1947,17 +5003,50 @@
 L’équipe de OCP</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="C93" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="D93" t="n">
         <v>12</v>
       </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>Bonjour cher utilisateur,
 Nous avons bien reçu votre inscription à notre plateforme. Pour activer votre compte, veuillez cliquer sur le lien suivant :
@@ -1967,17 +5056,50 @@
 L'équipe de Coursera</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="D94" t="n">
         <v>8</v>
       </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>Bonjour Mme,
 Nous avons bien reçu votre demande de changement de mot de passe. Pour finaliser cette modification, veuillez cliquer sur le lien ci-dessous.
@@ -1987,17 +5109,50 @@
 Le service client de Glovo</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="C95" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="D95" t="n">
         <v>9</v>
       </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>Nous vous confirmons votre inscription à l'examen final de M123.
 Voici les détails relatifs à l'examen :
@@ -2010,17 +5165,50 @@
 Cordialement,</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="C96" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="D96" t="n">
         <v>17</v>
       </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>Bonjour Marc,
 Ce message est un rappel concernant la remise de votre projet de fin d’études. La date limite de soumission est le 30 avril 2025 à 23h59.
@@ -2029,17 +5217,50 @@
 L’équipe pédagogique, Université de Lyon</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="C97" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="D97" t="n">
         <v>10</v>
       </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>Bonjour Sophie,
 Vous êtes cordialement invité à assister à la conférence sur L’Intelligence Artificielle et son impact sur la société organisée par le Département des Sciences Informatiques. La conférence aura lieu le 20 mars 2025 à 14h00 en Amphithéâtre B, Bâtiment C.
@@ -2049,17 +5270,50 @@
 L’équipe du département de Sciences Informatiques, Université de Toulouse</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="C98" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="D98" t="n">
         <v>29</v>
       </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>Bonjour Lucas,
 Félicitations ! Nous avons le plaisir de vous informer que votre candidature au programme de Master en Informatique a été acceptée pour l'année académique 2025-2026.
@@ -2072,17 +5326,50 @@
 L’équipe des admissions, Université de Lille</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="C99" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="D99" t="n">
         <v>17</v>
       </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>Bonjour Emma,
 Nous vous informons que votre emploi du temps pour le semestre Printemps 2025 a été mis à jour. Vous pouvez consulter les nouvelles informations sur le portail étudiant en ligne à partir de [www.univ-nice.fr/emploistudent].
@@ -2091,17 +5378,50 @@
 L’équipe des inscriptions, Université de Nice</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="C100" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="D100" t="n">
         <v>10</v>
       </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>Bonjour Jean Dupont,
 Merci de vous être inscrit sur notre plateforme ServiceXYZ. Votre compte a été créé avec succès. Vous pouvez maintenant vous connecter en utilisant vos identifiants.
@@ -2110,17 +5430,50 @@
 L’équipe ServiceXYZ</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="D101" t="n">
         <v>17</v>
       </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>Bonjour Léa,
 Nous vous informons que le cours de Chimie prévu pour le 2 avril 2025 à 10h00 a été déplacé de Salle 204, Bâtiment D vers Salle 305, Bâtiment E.
@@ -2129,17 +5482,50 @@
 L’équipe pédagogique, Département de Chimie, Université de Grenoble</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="D102" t="n">
         <v>17</v>
       </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>Bonjour Sophie Martin,
 Nous avons reçu une demande de réinitialisation de votre mot de passe pour votre compte sur ShopOnline. Si vous n'êtes pas à l'origine de cette demande, ignorez simplement cet e-mail. Si vous souhaitez toujours réinitialiser votre mot de passe, veuillez suivre les instructions sur notre site Web.
@@ -2147,17 +5533,50 @@
 L’équipe ShopOnline</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="C103" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="D103" t="n">
         <v>13</v>
       </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>Bonjour Paul Bernard,
 Merci pour votre commande #12345 sur EcommerceShop. Nous avons bien pris en compte votre achat. Votre commande sera expédiée sous peu. Vous recevrez une notification une fois celle-ci expédiée.
@@ -2166,17 +5585,50 @@
 L’équipe EcommerceShop</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="C104" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="D104" t="n">
         <v>14</v>
       </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>Bonjour Lucie Moreau,
 Vous avez un nouveau message dans votre espace personnel sur MyPlatform. Connectez-vous à votre compte pour le lire.
@@ -2185,17 +5637,50 @@
 L’équipe MyPlatform</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="C105" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="D105" t="n">
         <v>12</v>
       </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>Bonjour Michel Leroy,
 Votre compte sur PhotoApp a été créé avec succès. Vous pouvez maintenant vous connecter à votre espace pour accéder à vos photos et services.
@@ -2204,17 +5689,50 @@
 L’équipe PhotoApp</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="D106" t="n">
         <v>12</v>
       </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>Bonjour Pierre,
 Nous sommes ravis de vous inviter à notre soirée de gala de charité qui se tiendra le 15 avril 2025 à 19h00 à la Salle des Fêtes du Château.
@@ -2224,17 +5742,50 @@
 L’équipe de l’organisation, Gala de Charité 2025</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="D107" t="n">
         <v>14</v>
       </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>Bonjour Charlotte,
 Nous vous rappelons que votre abonnement annuel à [Service] arrive à échéance le 30 avril 2025. Le montant de votre renouvellement est de 120€.
@@ -2244,17 +5795,50 @@
 L’équipe des abonnements, [Service]</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="C108" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="D108" t="n">
         <v>10</v>
       </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t xml:space="preserve">Bonjour Mme Martin,
 Merci pour votre inscription à la newsletter de Netflix ! Vous recevrez désormais nos dernières actualités, offres spéciales, et conseils directement dans votre boîte de réception.
@@ -2264,17 +5848,50 @@
 </t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="D109" t="n">
         <v>9</v>
       </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
         <is>
           <t>Bonjour M. Lefevre,
 Nous vous confirmons que votre rendez-vous médical avec le Dr. Dupuis est bien prévu pour le 15 mars à 10h à la Clinique Saint-Joseph, 45 rue de la Santé, Paris.
@@ -2284,17 +5901,50 @@
 L’équipe de la Clinique Saint-Joseph</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="D110" t="n">
         <v>18</v>
       </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>Bonjour Gabriel,
 Nous vous rappelons que le séminaire sur les nouvelles méthodes pédagogiques aura lieu le 20 avril 2025 à 9h00 dans la Salle 301, Bâtiment E.
@@ -2304,17 +5954,50 @@
 L’équipe pédagogique, Université de Bordeaux</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="D111" t="n">
         <v>18</v>
       </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>Bonjour Clément,
 Nous avons bien reçu votre demande de visite pour l'appartement situé 10 Rue des Champs-Élysées, Paris 16ème, et avons planifié la visite pour le 15 avril 2025 à 16h00.
@@ -2324,17 +6007,50 @@
 L’équipe des ventes, Agence immobilière XYZ</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="D112" t="n">
         <v>14</v>
       </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>Bonjour Thomas,
 Nous avons bien reçu votre réservation pour le train en direction de Lyon le 22 avril 2025 à 14h00. Voici les détails de votre trajet :
@@ -2347,17 +6063,50 @@
 L’équipe SNCF</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="D113" t="n">
         <v>27</v>
       </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>Bonjour Laura,
 Nous vous confirmons votre inscription à la séance de yoga prévue pour le 18 avril 2025 à 18h00 dans notre centre de bien-être Zen &amp; Sérénité.
@@ -2366,17 +6115,50 @@
 L’équipe Zen &amp; Sérénité</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="D114" t="n">
         <v>11</v>
       </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>Bonjour Émilie,
 Nous avons le plaisir de vous informer que votre demande de passeport a été approuvée et est maintenant prête pour le retrait. Vous pouvez le récupérer à la mairie de Paris 7ème pendant les horaires d’ouverture.
@@ -2385,17 +6167,50 @@
 Service des Passeports, Mairie de Paris</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="D115" t="n">
         <v>10</v>
       </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>Bonjour Mme Dubois,
 Merci d’avoir contacté notre support technique. Votre demande a bien été reçue et un de nos experts vous répondra sous les 24 heures.
@@ -2405,17 +6220,50 @@
 L’équipe Support d’Apple</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="D116" t="n">
         <v>11</v>
       </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>Bonjour M. Richard,
 Nous avons récemment ajouté une nouvelle fonctionnalité sur l’application Uber qui vous permettra de partager votre trajet en temps réel avec vos amis et votre famille pour plus de sécurité.
@@ -2425,17 +6273,50 @@
 L’équipe Uber</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="D117" t="n">
         <v>10</v>
       </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>Bonjour M. Lefevre,
 Votre billet pour le concert de Coldplay le 12 avril au Stade de France a bien été réservé. Vous pouvez consulter et télécharger votre billet ici : www.ticketmaster.fr.
@@ -2444,17 +6325,50 @@
 L’équipe Ticketmaster</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="D118" t="n">
         <v>12</v>
       </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>Bonjour M. Renard,
 Nous avons mis à jour nos conditions générales d’utilisation. Nous vous encourageons à les consulter pour vous assurer que vous êtes au courant des changements importants. Vous pouvez les lire en cliquant ici : [lien vers les conditions].
@@ -2463,17 +6377,50 @@
 L’équipe Facebook</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="C119" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="D119" t="n">
         <v>10</v>
       </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>Bonjour Charlotte Pires,
 Nous avons bien reçu votre inscription à notre newsletter. Vous recevrez prochainement nos dernières actualités et offres.
@@ -2481,17 +6428,50 @@
 L’équipe NewsletterPro</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="D120" t="n">
         <v>9</v>
       </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>Bonjour Bernard Robert,
 Nous vous rappelons que votre rendez-vous chez le Dr. Dupont est prévu pour le 22 mars à 15h00. Si vous avez besoin de reprogrammer ou annuler ce rendez-vous, veuillez nous contacter à l'avance.
@@ -2499,17 +6479,50 @@
 Le cabinet médical du Dr. Dupont</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="C121" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="D121" t="n">
         <v>11</v>
       </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>Bonjour Élise Girard,
 Nous vous contactons pour vérifier certaines informations sur votre compte SecureBank. Veuillez consulter les instructions dans votre espace sécurisé pour finaliser la vérification.
@@ -2517,17 +6530,50 @@
 L’équipe SecureBank</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="C122" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="D122" t="n">
         <v>10</v>
       </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>Bonjour Clément Dubois,
 Nous avons bien reçu votre demande d’assistance concernant votre compte TravelBooking. Un membre de notre équipe de support vous contactera sous peu pour résoudre votre problème.
@@ -2536,17 +6582,50 @@
 L’équipe TravelBooking</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="C123" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="D123" t="n">
         <v>12</v>
       </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>Bonjour Léa,
 Nous sommes heureux de vous informer que votre commande de fruits et légumes frais a été expédiée et vous sera livrée dans les prochaines 24 heures.
@@ -2559,17 +6638,50 @@
 L’équipe de Livraison Fraîche</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="C124" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="D124" t="n">
         <v>9</v>
       </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>Bonjour Isabelle Mercier,
 Nous vous confirmons que votre abonnement à notre service FitnessApp a bien été activé. Vous pouvez dès maintenant accéder à l'ensemble de nos contenus exclusifs.
@@ -2578,17 +6690,50 @@
 L’équipe FitnessApp</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="C125" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="D125" t="n">
         <v>12</v>
       </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>Bonjour Maxime Lefevre,
 Votre compte TechStore a été mis à jour avec les informations que vous avez fournies. Vous pouvez consulter vos informations de compte directement depuis votre espace personnel.
@@ -2597,17 +6742,50 @@
 L’équipe TechStore</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="C126" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="D126" t="n">
         <v>12</v>
       </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>Bonjour Damien,
 Nous avons bien reçu votre réservation pour le dîner au restaurant [Nom du restaurant] prévu le 27 avril 2025 à 20h00.
@@ -2617,17 +6795,50 @@
 L’équipe du Cabestan</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="C127" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="D127" t="n">
         <v>10</v>
       </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
         <is>
           <t>Bonjour Equipe Service Client de TechStore,
 Je me permets de vous écrire concernant un produit que j'ai acheté sur votre site. J'ai reçu ma commande #789456 le 10 mars, mais à l'ouverture du colis, j'ai constaté que le smartphone que j'avais commandé était endommagé.
@@ -2637,17 +6848,50 @@
 Marc Dupuis</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="C128" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="D128" t="n">
         <v>13</v>
       </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>Bonjour Service Client d'OnlineShop,
 Je vous contacte suite à un problème de facturation concernant ma commande #123987. En effet, j'ai remarqué une erreur dans le montant facturé sur ma facture. Le montant facturé est supérieur à celui affiché lors de la commande.
@@ -2657,17 +6901,50 @@
 Sophie Dufresne</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="D129" t="n">
         <v>13</v>
       </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>Bonjour Support Client de ServicePro,
 Je vous écris pour exprimer mon mécontentement concernant la prestation de service que j'ai demandée le 15 février. J'avais payé pour l’installation d’un système de sécurité dans ma maison, mais à ce jour, aucun technicien ne s'est présenté, bien que la date prévue soit passée.
@@ -2677,17 +6954,50 @@
 Julie Mercier</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="C130" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="D130" t="n">
         <v>13</v>
       </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>Bonjour Équipe Support de MyPlatform,
 Je vous écris concernant un problème de connexion à mon compte sur votre plateforme MyPlatform. Cela fait plusieurs jours que je rencontre des difficultés pour me connecter à mon espace, malgré plusieurs tentatives de réinitialisation du mot de passe.
@@ -2697,17 +7007,50 @@
 Louis Beaulieu</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="D131" t="n">
         <v>14</v>
       </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>Bonjour Isabelle,
 Nous avons le plaisir de vous inviter à la conférence sur l’innovation numérique qui se tiendra le 30 avril 2025 à Paris Expo Porte de Versailles, Paris, France.
@@ -2717,17 +7060,50 @@
 L’équipe organisatrice, Conférence Innovation Numérique 2025</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="D132" t="n">
         <v>19</v>
       </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>Bonjour Bernard,
 Nous vous rappelons que l’entretien de votre chaudière est prévu pour le 10 mai 2025. Un technicien de Chauffage Pro viendra effectuer l’entretien à votre domicile entre 9h00 et 12h00 à l’adresse 8 Rue des Fleurs, 75002 Paris.
@@ -2736,17 +7112,50 @@
 L’équipe de service, Chauffage Pro</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="D133" t="n">
         <v>14</v>
       </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>Bonjour Olivier,
 Voici le rapport annuel de votre portefeuille d’investissement pour l'année 2025. Vous trouverez les détails concernant vos placements et la performance des actions, obligations, et fonds que vous détenez.
@@ -2755,17 +7164,50 @@
 L’équipe de gestion de patrimoine</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="D134" t="n">
         <v>7</v>
       </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>Bonjour Monsieur Martin,
 Nous avons le plaisir de vous confirmer votre réservation à l’Hôtel Paris Opera pour le 25 au 27 mars. Votre chambre a été réservée sous le nom de Martin.
@@ -2775,17 +7217,50 @@
 L’équipe de l’Hôtel Paris Opera</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="D135" t="n">
         <v>16</v>
       </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>Bonjour M. Thomas,
 Merci pour votre candidature au poste de développeur logiciel chez Microsoft. Nous avons bien reçu votre CV et nous avons hâte d’en savoir plus lors de l’entretien prévu le 22 mars à 10h00 via Zoom.
@@ -2794,17 +7269,50 @@
 L’équipe des Ressources Humaines de Microsoft</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="D136" t="n">
         <v>15</v>
       </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>Bonjour M. Guérin,
 Une mise à jour importante est disponible pour votre système Windows. Nous vous recommandons d’installer cette mise à jour dès que possible pour bénéficier des dernières fonctionnalités et de la sécurité renforcée.
@@ -2813,17 +7321,50 @@
 L’équipe Windows</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="D137" t="n">
         <v>10</v>
       </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>Bonjour Sophie,
 Nous vous présentons aujourd'hui notre nouvelle propriété à vendre située à Casablanca. Ce bien de 100 m² comprend 3 chambres, un grand salon, une cuisine moderne, et un jardin privé. Il est parfait pour une famille à la recherche de tranquillité tout en étant proche des commodités.
@@ -2832,17 +7373,50 @@
 L’équipe immobilière</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="D138" t="n">
         <v>9</v>
       </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>Bonjour M. Dupuis,
 En tant que membre de l'association Culture et Patrimoine, nous vous convions à notre assemblée générale annuelle qui se déroulera le 5 avril à 18h00 au siège de l'association, 12, rue des Arts, Lyon, 69000.
@@ -2854,17 +7428,50 @@
 Culture et Patrimoine</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="C139" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="D139" t="n">
         <v>16</v>
       </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>Bonjour Charlotte Bernard,
 Nous avons le plaisir de vous inviter à présenter votre projet de recherche "Optimisation des systèmes énergétiques" lors de notre prochaine conférence interne.
@@ -2876,17 +7483,50 @@
 TechCorp</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="D140" t="n">
         <v>16</v>
       </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>Bonjour David Martin,
 Dans le cadre de notre processus annuel d’évaluation des performances, nous vous convions à un entretien de performance qui se tiendra le 20 avril à 14h30 dans mon bureau.
@@ -2898,17 +7538,50 @@
 GlobalCorp</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="D141" t="n">
         <v>14</v>
       </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>0</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>Bonjour Mélanie,
 Nous sommes ravis de vous proposer une offre exclusive pour un séjour tout compris à Bali. Profitez de 7 nuits dans un hôtel 4 étoiles avec vue sur l'océan pour 799€ par personne. Cette offre inclut :
@@ -2922,17 +7595,50 @@
 L’équipe de VoyagesExotique</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="D142" t="n">
         <v>17</v>
       </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>Cher utilisateur,
 Vous avez besoin d'argent rapidement ? Nous vous offrons un prêt instantané jusqu'à 5000€ sans aucun justificatif ni enquête de crédit !
@@ -2940,84 +7646,249 @@
 Cliquez ici pour recevoir votre prêt maintenant : www.prêt-rapide.com</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>5</v>
       </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0</v>
+      </c>
+      <c r="M143" t="n">
+        <v>0</v>
+      </c>
+      <c r="N143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
         <is>
           <t>Bonjour,
 Nous avons des iPhone 13 à vendre à moitié prix ! C'est une occasion en or de vous procurer ce téléphone dernier cri pour une fraction de son prix habituel. Quantités limitées !
 Commandez le vôtre maintenant avant qu'il ne soit trop tard : www.superdealphones.com</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
         <v>6</v>
       </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>0</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>Cher investisseur potentiel,
 Nous vous offrons l'opportunité d'investir 100€ dans un projet ultra-rentable, et de voir votre investissement se multiplier par 50 en seulement 2 semaines. Les places sont limitées, alors ne manquez pas cette chance !
 Inscrivez-vous maintenant pour commencer : www.investir100.com</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>4</v>
       </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0</v>
+      </c>
+      <c r="M145" t="n">
+        <v>0</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>Salut,
 Vous souhaitez connaître les secrets de vos amis sur Instagram ? Notre outil de piratage vous permet d'accéder à n'importe quel compte Instagram en seulement 5 minutes. C'est simple, rapide et anonyme.
 Téléchargez-le gratuitement ici : www.piratezcompte.com</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C146" t="n">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
         <v>7</v>
       </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>0</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>Vous avez oublié un mot de passe ? Nous avons développé un logiciel de piratage de mots de passe capable de décrypter n'importe quelle clé d'accès, que ce soit pour vos comptes bancaires ou réseaux sociaux.
 Téléchargez-le maintenant et retrouvez vos informations perdues : www.pirateur-motsdepasse.com</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Spam</t>
-        </is>
-      </c>
-      <c r="C147" t="n">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Spam</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>3</v>
       </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0</v>
+      </c>
+      <c r="M147" t="n">
+        <v>0</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>Bonjour,
 Je suis intéressé par votre produit et souhaiterais obtenir plus d’informations sur ses fonctionnalités et tarifs. Pourriez-vous me faire parvenir une brochure détaillée et un devis personnalisé ?
@@ -3025,17 +7896,50 @@
 Cordialement,</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="D148" t="n">
         <v>5</v>
       </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" t="n">
+        <v>0</v>
+      </c>
+      <c r="N148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>Madame, Monsieur,
 Je vous écris pour vous faire part de ma candidature pour le poste de Développeur Web que vous avez récemment publié. Fort de mon expérience en développement front-end et back-end, je suis convaincu(e) que mes compétences peuvent apporter une valeur ajoutée à votre équipe.
@@ -3044,17 +7948,50 @@
 Cordialement,</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="D149" t="n">
         <v>12</v>
       </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>0</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>Hey ALI,
 Comment ça va ? J'espère que tu as passé une bonne semaine ! 😊
@@ -3063,17 +8000,50 @@
 Ahmed</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="D150" t="n">
         <v>10</v>
       </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" t="n">
+        <v>0</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>Bonjour M. Dupont,
 Je vous remercie pour l'opportunité de passer un entretien pour le poste de Data Analyst au sein de DataCorp.
@@ -3085,17 +8055,50 @@
 Lucie Martin</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="D151" t="n">
         <v>17</v>
       </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>Bonjour Mme Lefevre,
 Je vous remercie pour l'entretien que nous avons eu le 18 mars concernant le poste de Chef de projet digital au sein de Innovatech. J'ai été particulièrement intéressé par la vision de l'entreprise et les projets à venir.
@@ -3104,17 +8107,50 @@
 Marc Dupuis</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="D152" t="n">
         <v>12</v>
       </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>Bonjour M. Moreau,
 Je vous remercie pour l'invitation à l'entretien pour le poste de Développeur web au sein de votre entreprise TechXpert. Je confirme ma disponibilité pour le 22 mars à 14h00.
@@ -3124,17 +8160,50 @@
 Clara Robert</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="D153" t="n">
         <v>17</v>
       </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>Bonjour Mme Gauthier,
 Je vous remercie encore pour l'opportunité d'avoir passé un entretien pour le poste de Data Scientist chez SmartTech. J'ai trouvé notre conversation très enrichissante et je suis encore plus enthousiaste à l'idée de rejoindre votre équipe.
@@ -3144,13 +8213,43 @@
 David Lefevre</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Non spam</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="D154" t="n">
         <v>14</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
